--- a/CETC/ExcelFile/dtEachProductionLineWorkState.xlsx
+++ b/CETC/ExcelFile/dtEachProductionLineWorkState.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\EI41\DevExpressDemo\CETC\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0FA809-61E3-49E5-BE84-4D3D70F05CC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D18A1D8-A9A1-4181-BA57-DA66F2D395E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>DeviceName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,52 @@
   </si>
   <si>
     <t>散包光电检测</t>
+  </si>
+  <si>
+    <t>DeviceNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
   </si>
 </sst>
 </file>
@@ -148,8 +194,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -430,344 +477,387 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A4" sqref="A4:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="6" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2000</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>60</v>
+      </c>
+      <c r="G2">
+        <v>40</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2001</v>
+      </c>
+      <c r="E3">
+        <v>101</v>
+      </c>
+      <c r="F3">
+        <v>61</v>
+      </c>
+      <c r="G3">
+        <v>41</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2002</v>
+      </c>
+      <c r="E4">
+        <v>102</v>
+      </c>
+      <c r="F4">
+        <v>62</v>
+      </c>
+      <c r="G4">
+        <v>42</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2003</v>
+      </c>
+      <c r="E5">
+        <v>103</v>
+      </c>
+      <c r="F5">
+        <v>63</v>
+      </c>
+      <c r="G5">
+        <v>43</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2004</v>
+      </c>
+      <c r="E6">
+        <v>104</v>
+      </c>
+      <c r="F6">
+        <v>64</v>
+      </c>
+      <c r="G6">
+        <v>44</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2005</v>
+      </c>
+      <c r="E7">
+        <v>105</v>
+      </c>
+      <c r="F7">
+        <v>65</v>
+      </c>
+      <c r="G7">
+        <v>45</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2006</v>
+      </c>
+      <c r="E8">
+        <v>106</v>
+      </c>
+      <c r="F8">
+        <v>66</v>
+      </c>
+      <c r="G8">
+        <v>46</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2007</v>
+      </c>
+      <c r="E9">
+        <v>107</v>
+      </c>
+      <c r="F9">
+        <v>67</v>
+      </c>
+      <c r="G9">
+        <v>47</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2008</v>
+      </c>
+      <c r="E10">
+        <v>108</v>
+      </c>
+      <c r="F10">
+        <v>68</v>
+      </c>
+      <c r="G10">
+        <v>48</v>
+      </c>
+      <c r="H10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2010</v>
+      </c>
+      <c r="E12">
+        <v>110</v>
+      </c>
+      <c r="F12">
+        <v>70</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>2011</v>
+      </c>
+      <c r="E13">
+        <v>111</v>
+      </c>
+      <c r="F13">
+        <v>71</v>
+      </c>
+      <c r="G13">
+        <v>51</v>
+      </c>
+      <c r="H13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>60</v>
-      </c>
-      <c r="F2">
-        <v>40</v>
-      </c>
-      <c r="G2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>21</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>61</v>
-      </c>
-      <c r="F3">
-        <v>41</v>
-      </c>
-      <c r="G3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>22</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>62</v>
-      </c>
-      <c r="F4">
-        <v>42</v>
-      </c>
-      <c r="G4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>63</v>
-      </c>
-      <c r="F5">
-        <v>43</v>
-      </c>
-      <c r="G5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>64</v>
-      </c>
-      <c r="F6">
-        <v>44</v>
-      </c>
-      <c r="G6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>65</v>
-      </c>
-      <c r="F7">
-        <v>45</v>
-      </c>
-      <c r="G7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>26</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>66</v>
-      </c>
-      <c r="F8">
-        <v>46</v>
-      </c>
-      <c r="G8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>27</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>67</v>
-      </c>
-      <c r="F9">
-        <v>47</v>
-      </c>
-      <c r="G9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>28</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>68</v>
-      </c>
-      <c r="F10">
-        <v>48</v>
-      </c>
-      <c r="G10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>-1</v>
-      </c>
-      <c r="C11">
-        <v>29</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>69</v>
-      </c>
-      <c r="F11">
-        <v>49</v>
-      </c>
-      <c r="G11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>30</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>70</v>
-      </c>
-      <c r="F12">
-        <v>50</v>
-      </c>
-      <c r="G12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>31</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>71</v>
-      </c>
-      <c r="F13">
-        <v>51</v>
-      </c>
-      <c r="G13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
       <c r="C14">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>2012</v>
       </c>
       <c r="E14">
+        <v>112</v>
+      </c>
+      <c r="F14">
         <v>72</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>52</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>30</v>
       </c>
     </row>

--- a/CETC/ExcelFile/dtEachProductionLineWorkState.xlsx
+++ b/CETC/ExcelFile/dtEachProductionLineWorkState.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\EI41\DevExpressDemo\CETC\ExcelFile\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D18A1D8-A9A1-4181-BA57-DA66F2D395E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>DeviceName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,12 +146,52 @@
   </si>
   <si>
     <t>013</t>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_烟库乱烟检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_烟支空头检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_模盒缺支检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_一号轮缺支检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_三号轮铝箔纸检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -257,7 +291,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -292,7 +326,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -469,18 +503,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A14"/>
+      <selection activeCell="E15" sqref="E15:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -861,6 +895,136 @@
         <v>30</v>
       </c>
     </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2000</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>60</v>
+      </c>
+      <c r="G15">
+        <v>40</v>
+      </c>
+      <c r="H15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2001</v>
+      </c>
+      <c r="E16">
+        <v>101</v>
+      </c>
+      <c r="F16">
+        <v>61</v>
+      </c>
+      <c r="G16">
+        <v>41</v>
+      </c>
+      <c r="H16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2002</v>
+      </c>
+      <c r="E17">
+        <v>102</v>
+      </c>
+      <c r="F17">
+        <v>62</v>
+      </c>
+      <c r="G17">
+        <v>42</v>
+      </c>
+      <c r="H17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2003</v>
+      </c>
+      <c r="E18">
+        <v>103</v>
+      </c>
+      <c r="F18">
+        <v>63</v>
+      </c>
+      <c r="G18">
+        <v>43</v>
+      </c>
+      <c r="H18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2004</v>
+      </c>
+      <c r="E19">
+        <v>104</v>
+      </c>
+      <c r="F19">
+        <v>64</v>
+      </c>
+      <c r="G19">
+        <v>44</v>
+      </c>
+      <c r="H19">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
